--- a/REVER_DAILYTRACKER_SABEENA.xlsx
+++ b/REVER_DAILYTRACKER_SABEENA.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="1" r:id="rId1"/>
     <sheet name="OCT-2020" sheetId="2" r:id="rId2"/>
     <sheet name="NOV-2020" sheetId="3" r:id="rId3"/>
+    <sheet name="DEC-2020" sheetId="4" r:id="rId4"/>
+    <sheet name="JAN-2021" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="72">
   <si>
     <t>No</t>
   </si>
@@ -197,6 +199,51 @@
   </si>
   <si>
     <t>Issue Fixing For Best_IVC_REPORT,Best_mnt_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave </t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Issue Fixing Sonia Best_Report_ivc</t>
+  </si>
+  <si>
+    <t>Nmvar Active Reports Conversion</t>
+  </si>
+  <si>
+    <t>Qmvar</t>
+  </si>
+  <si>
+    <t>Dashbord - Qmwar 2.0</t>
+  </si>
+  <si>
+    <t>Nmvar</t>
+  </si>
+  <si>
+    <t>nmvar</t>
+  </si>
+  <si>
+    <t>Dashbord  creation - Qmwar 2.0</t>
+  </si>
+  <si>
+    <t>Dashboard creation -Qmvar 2.0</t>
+  </si>
+  <si>
+    <t>Dashbord - Right based creation</t>
+  </si>
+  <si>
+    <t>Mujistore</t>
+  </si>
+  <si>
+    <t>Offline Download</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Issue fix for Best_ivc_repot</t>
   </si>
 </sst>
 </file>
@@ -206,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +317,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -429,11 +484,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -452,24 +510,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -507,25 +547,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -932,13 +1078,13 @@
       <c r="B6" s="4">
         <v>44079</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
@@ -947,11 +1093,11 @@
       <c r="B7" s="4">
         <v>44049</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3">
@@ -1065,13 +1211,13 @@
       <c r="B13" s="4">
         <v>44086</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3">
@@ -1080,11 +1226,11 @@
       <c r="B14" s="4">
         <v>44087</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3">
@@ -1198,13 +1344,13 @@
       <c r="B20" s="4">
         <v>44093</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3">
@@ -1213,13 +1359,13 @@
       <c r="B21" s="4">
         <v>44094</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" ht="105">
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1240,7 +1386,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="90">
+    <row r="23" spans="1:7">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1261,7 +1407,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="90">
+    <row r="24" spans="1:7">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1282,7 +1428,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="90">
+    <row r="25" spans="1:7">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1303,7 +1449,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="30">
+    <row r="26" spans="1:7">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1319,7 +1465,7 @@
       <c r="E26" s="7">
         <v>1</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="10" t="s">
         <v>30</v>
       </c>
       <c r="G26" s="3"/>
@@ -1353,428 +1499,428 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
         <v>44105</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="21">
-        <v>1</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="19"/>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="19">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="14">
         <v>44106</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="21">
-        <v>1</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="19"/>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="19">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="14">
         <v>44109</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="19"/>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="19">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="14">
         <v>44110</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="21">
-        <v>1</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="19"/>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="19">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="14">
         <v>44111</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="19"/>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="19">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="14">
         <v>44112</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="21">
-        <v>1</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="19"/>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="19">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="14">
         <v>44113</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="21">
-        <v>1</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="19"/>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="14">
         <v>44116</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="21">
-        <v>1</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="19"/>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="19">
-        <v>9</v>
-      </c>
-      <c r="B10" s="20">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14">
         <v>44117</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="21">
-        <v>1</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="19"/>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="14">
         <v>44118</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="21">
-        <v>1</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="19"/>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="19">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="14">
         <v>44119</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="21">
-        <v>1</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="19"/>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="19">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="14">
         <v>44120</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="19">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="14">
         <v>44124</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="23" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="19">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="14">
         <v>44125</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="23" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="19">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="14">
         <v>44126</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="23" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="19">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="14">
         <v>44127</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="23" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="19"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="19">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="14">
         <v>44131</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="19" t="s">
+      <c r="C18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="23" t="s">
+      <c r="E18" s="15"/>
+      <c r="F18" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="19">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="14">
         <v>44132</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="19"/>
+      <c r="C19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="19">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="14">
         <v>44133</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="19"/>
+      <c r="C20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="23"/>
+      <c r="B23" s="17"/>
       <c r="C23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="B24" s="25"/>
+      <c r="B24" s="19"/>
       <c r="C24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" s="26"/>
+      <c r="B25" s="20"/>
       <c r="C25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="B26" s="27"/>
+      <c r="B26" s="21"/>
       <c r="C26" t="s">
         <v>46</v>
       </c>
@@ -1788,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1804,518 +1950,518 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="28">
-        <v>1</v>
-      </c>
-      <c r="B2" s="29">
+    <row r="2" spans="1:7">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
         <v>44136</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="28">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="23">
         <v>44137</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="28">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="23">
         <v>44138</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="38" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="28">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="23">
         <v>44139</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="33" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="28">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="23">
         <v>44140</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="28">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="23">
         <v>44141</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="38" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="28">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="23">
         <v>44142</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="19"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="28">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="23">
         <v>44143</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="19"/>
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="28">
-        <v>9</v>
-      </c>
-      <c r="B10" s="29">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23">
         <v>44144</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="34" t="s">
+      <c r="C10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="33" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="28">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="23">
         <v>44145</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="34" t="s">
+      <c r="C11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="33" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="28">
+      <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="23">
         <v>44146</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="33" t="s">
+      <c r="E12" s="25"/>
+      <c r="F12" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="28">
+      <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="23">
         <v>44147</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="34" t="s">
+      <c r="C13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="33" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="28">
+      <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="23">
         <v>44148</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="38" t="s">
+      <c r="E14" s="25"/>
+      <c r="F14" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="28">
+      <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="23">
         <v>44149</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="35" t="s">
+      <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="19"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="28">
+      <c r="A16" s="22">
         <v>15</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="23">
         <v>44150</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="19"/>
+      <c r="C16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" ht="15.75">
-      <c r="A17" s="28">
+      <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="23">
         <v>44151</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="39" t="s">
+      <c r="C17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="33" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="19"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="28">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="23">
         <v>44152</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="33" t="s">
+      <c r="E18" s="25"/>
+      <c r="F18" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="28">
+      <c r="A19" s="22">
         <v>18</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="23">
         <v>44153</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="34" t="s">
+      <c r="C19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="38" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="28">
+      <c r="A20" s="22">
         <v>19</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="23">
         <v>44154</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="34" t="s">
+      <c r="C20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="33" t="s">
+      <c r="E20" s="25"/>
+      <c r="F20" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="19"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="28">
+      <c r="A21" s="22">
         <v>20</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="23">
         <v>44155</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="34" t="s">
+      <c r="C21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="33" t="s">
+      <c r="E21" s="25"/>
+      <c r="F21" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="28">
+      <c r="A22" s="22">
         <v>21</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="23">
         <v>44156</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="35" t="s">
+      <c r="C22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="19"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="28">
+      <c r="A23" s="22">
         <v>22</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="23">
         <v>44157</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="19"/>
+      <c r="C23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="45"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="28">
+      <c r="A24" s="22">
         <v>23</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="23">
         <v>44158</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="33" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="28">
+      <c r="A25" s="22">
         <v>24</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="23">
         <v>44159</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="34" t="s">
+      <c r="C25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="33" t="s">
+      <c r="E25" s="25"/>
+      <c r="F25" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="19"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="28">
+      <c r="A26" s="22">
         <v>25</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="23">
         <v>44160</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="34" t="s">
+      <c r="C26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="33" t="s">
+      <c r="E26" s="25"/>
+      <c r="F26" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="19"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="28">
+      <c r="A27" s="22">
         <v>26</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="23">
         <v>44161</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="34" t="s">
+      <c r="C27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="38" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="19"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="28">
+      <c r="A28" s="22">
         <v>27</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="23">
         <v>44162</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="34" t="s">
+      <c r="C28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="38" t="s">
+      <c r="E28" s="25"/>
+      <c r="F28" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="G28" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2325,4 +2471,1178 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="A1:G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33">
+        <v>44166</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>44167</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
+        <v>44168</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33">
+        <v>44169</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33">
+        <v>44170</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33">
+        <v>44171</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33">
+        <v>44172</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33">
+        <v>44173</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="60" customHeight="1">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33">
+        <v>44174</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" ht="75" customHeight="1">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33">
+        <v>44175</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" ht="60" customHeight="1">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33">
+        <v>44176</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" ht="60" customHeight="1">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="33">
+        <v>44177</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" ht="60" customHeight="1">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="33">
+        <v>44178</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33">
+        <v>44179</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33">
+        <v>44180</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="33">
+        <v>44181</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" ht="75" customHeight="1">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="33">
+        <v>44182</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" ht="75" customHeight="1">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="33">
+        <v>44183</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" ht="60" customHeight="1">
+      <c r="A20" s="22">
+        <v>19</v>
+      </c>
+      <c r="B20" s="33">
+        <v>44184</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" ht="60" customHeight="1">
+      <c r="A21" s="22">
+        <v>20</v>
+      </c>
+      <c r="B21" s="33">
+        <v>44185</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="33">
+        <v>44186</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
+      <c r="B23" s="33">
+        <v>44187</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="B24" s="33">
+        <v>44188</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" ht="60" customHeight="1">
+      <c r="A25" s="22">
+        <v>24</v>
+      </c>
+      <c r="B25" s="33">
+        <v>44189</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" ht="60" customHeight="1">
+      <c r="A26" s="22">
+        <v>25</v>
+      </c>
+      <c r="B26" s="33">
+        <v>44190</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" ht="60" customHeight="1">
+      <c r="A27" s="22">
+        <v>26</v>
+      </c>
+      <c r="B27" s="33">
+        <v>44191</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" ht="105" customHeight="1">
+      <c r="A28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="33">
+        <v>44192</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="47">
+        <v>28</v>
+      </c>
+      <c r="B29" s="33">
+        <v>44193</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="32"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="47">
+        <v>29</v>
+      </c>
+      <c r="B30" s="33">
+        <v>44194</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="32"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="47">
+        <v>30</v>
+      </c>
+      <c r="B31" s="33">
+        <v>44195</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="32"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="47">
+        <v>31</v>
+      </c>
+      <c r="B32" s="33">
+        <v>44196</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="32"/>
+      <c r="F32" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="58">
+        <v>1</v>
+      </c>
+      <c r="B2" s="57">
+        <v>44197</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="58">
+        <v>2</v>
+      </c>
+      <c r="B3" s="57">
+        <v>44198</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="58">
+        <v>3</v>
+      </c>
+      <c r="B4" s="57">
+        <v>44199</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="58">
+        <v>4</v>
+      </c>
+      <c r="B5" s="57">
+        <v>44200</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="52"/>
+      <c r="F5" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="51"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="58">
+        <v>5</v>
+      </c>
+      <c r="B6" s="57">
+        <v>44201</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="58">
+        <v>6</v>
+      </c>
+      <c r="B7" s="57">
+        <v>44202</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="51"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="58">
+        <v>7</v>
+      </c>
+      <c r="B8" s="57">
+        <v>44203</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="51"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="58">
+        <v>8</v>
+      </c>
+      <c r="B9" s="57">
+        <v>44204</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="52"/>
+      <c r="F9" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="51"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="58">
+        <v>9</v>
+      </c>
+      <c r="B10" s="57">
+        <v>44205</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="58">
+        <v>10</v>
+      </c>
+      <c r="B11" s="57">
+        <v>44206</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="58">
+        <v>11</v>
+      </c>
+      <c r="B12" s="57">
+        <v>44207</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="52"/>
+      <c r="F12" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="51"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="58">
+        <v>12</v>
+      </c>
+      <c r="B13" s="57">
+        <v>44208</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="52"/>
+      <c r="F13" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="51"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="58">
+        <v>13</v>
+      </c>
+      <c r="B14" s="57">
+        <v>44209</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="52"/>
+      <c r="F14" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="51"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="58">
+        <v>14</v>
+      </c>
+      <c r="B15" s="57">
+        <v>44210</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="51"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="58">
+        <v>15</v>
+      </c>
+      <c r="B16" s="57">
+        <v>44211</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="51"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="51"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="58">
+        <v>16</v>
+      </c>
+      <c r="B17" s="57">
+        <v>44212</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="51"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="58">
+        <v>17</v>
+      </c>
+      <c r="B18" s="57">
+        <v>44213</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="51"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="58">
+        <v>18</v>
+      </c>
+      <c r="B19" s="57">
+        <v>44214</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="52"/>
+      <c r="F19" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="51"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="58">
+        <v>19</v>
+      </c>
+      <c r="B20" s="57">
+        <v>44215</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="52"/>
+      <c r="F20" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="51"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="58">
+        <v>20</v>
+      </c>
+      <c r="B21" s="57">
+        <v>44216</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="51"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="58">
+        <v>21</v>
+      </c>
+      <c r="B22" s="57">
+        <v>44217</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="52"/>
+      <c r="F22" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="51"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="58">
+        <v>22</v>
+      </c>
+      <c r="B23" s="57">
+        <v>44218</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="52"/>
+      <c r="F23" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="51"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="59">
+        <v>23</v>
+      </c>
+      <c r="B24" s="60">
+        <v>44219</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="54"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="58">
+        <v>24</v>
+      </c>
+      <c r="B25" s="57">
+        <v>44220</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="52"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="51"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="58">
+        <v>25</v>
+      </c>
+      <c r="B26" s="57">
+        <v>44221</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="52"/>
+      <c r="F26" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="51"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="58">
+        <v>26</v>
+      </c>
+      <c r="B27" s="57">
+        <v>44222</v>
+      </c>
+      <c r="C27" s="51"/>
+      <c r="D27" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="52"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="51"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="58">
+        <v>27</v>
+      </c>
+      <c r="B28" s="57">
+        <v>44223</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="52"/>
+      <c r="F28" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="51"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="58">
+        <v>28</v>
+      </c>
+      <c r="B29" s="57">
+        <v>44224</v>
+      </c>
+      <c r="C29" s="51"/>
+      <c r="D29" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="51"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="51"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="58">
+        <v>29</v>
+      </c>
+      <c r="B30" s="57">
+        <v>44225</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="52"/>
+      <c r="F30" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="51"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="58">
+        <v>30</v>
+      </c>
+      <c r="B31" s="57">
+        <v>44226</v>
+      </c>
+      <c r="C31" s="51"/>
+      <c r="D31" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="51"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="51"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="58">
+        <v>31</v>
+      </c>
+      <c r="B32" s="57">
+        <v>44227</v>
+      </c>
+      <c r="C32" s="51"/>
+      <c r="D32" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>